--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3244.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3244.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.692977323076944</v>
+        <v>0.9714348912239075</v>
       </c>
       <c r="B1">
-        <v>2.361514760681249</v>
+        <v>0.8539865612983704</v>
       </c>
       <c r="C1">
-        <v>2.572472369567923</v>
+        <v>0.659881055355072</v>
       </c>
       <c r="D1">
-        <v>3.088477665330735</v>
+        <v>0.6383389830589294</v>
       </c>
       <c r="E1">
-        <v>2.676215083224865</v>
+        <v>0.6881824135780334</v>
       </c>
     </row>
   </sheetData>
